--- a/Manufacturing/Распиновка.xlsx
+++ b/Manufacturing/Распиновка.xlsx
@@ -20,84 +20,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">Распиновка сигнального разъема</t>
   </si>
   <si>
+    <t xml:space="preserve">Распиновка энкодера</t>
+  </si>
+  <si>
     <t xml:space="preserve">Номер контакта разъема</t>
   </si>
   <si>
     <t xml:space="preserve">Назначение</t>
   </si>
   <si>
+    <t xml:space="preserve">Цвет провода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стояночный тормоз (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Красный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+EXC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл силового контактора (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Черный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-EXC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть Высокое Напряжение ЗПТ (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл. Зажигания  (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аварийный Останов (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зеленый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5В (Питание педалей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Желтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5В (Питание педалей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-BUS HIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN-BUS LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет соединения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лампа заднего хода (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл. Помпы (Выход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Вперед» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Реверс» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручка КПП «Паркинг» (Вход)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тормоз 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тормоз 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкл шунтирующего контактора (Выход)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Изменения усилия руля (ШИМ) (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стояночный тормоз (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкл силового контактора (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Есть Высокое Напряжение ЗПТ (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкл. Зажигания  (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аварийный Останов (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5В (Питание педалей)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5В (Питание педалей)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN-BUS HIGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN-BUS LOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5В (Питание ДПР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5В (Питание ДПР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкл шунтирующего контактора (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лампа заднего хода (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вкл. Помпы (Выход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ручка КПП «Вперед» (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ручка КПП «Реверс» (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ручка КПП «Паркинг» (Вход)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тормоз 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тормоз 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДПР_3 (R-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДПР_2 (B-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДПР_1 (A-)</t>
   </si>
   <si>
     <r>
@@ -155,16 +185,16 @@
     <t xml:space="preserve">Акселератор 1</t>
   </si>
   <si>
+    <t xml:space="preserve">NTC об. Возб. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC об. Возб. +</t>
+  </si>
+  <si>
     <t xml:space="preserve">NTC об. Якоря -</t>
   </si>
   <si>
     <t xml:space="preserve">NTC об. Якоря +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC об. Возб. -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTC об. Возб. +</t>
   </si>
 </sst>
 </file>
@@ -256,7 +286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,6 +307,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,16 +328,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,13 +347,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,7 +371,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,7 +385,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,7 +399,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,7 +413,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,7 +427,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,7 +441,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -397,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,23 +487,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +521,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,7 +545,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,7 +561,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,31 +569,34 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,15 +604,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,15 +621,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +638,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +646,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +662,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,12 +686,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
